--- a/sauvegardepayement/save_payement.xlsx
+++ b/sauvegardepayement/save_payement.xlsx
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="121">
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="122">
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="123">
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="124">
@@ -3620,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="125">
@@ -3646,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="126">
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="127">
@@ -3698,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="128">
@@ -3724,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="129">
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="130">
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="131">
@@ -3798,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="132">
@@ -3820,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="133">
@@ -3842,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="134">
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="135">
@@ -3894,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="136">
@@ -3916,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="137">
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="138">
@@ -3964,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="139">
@@ -3990,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="140">
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="141">
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="142">
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="143">
@@ -4090,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="144">
@@ -4112,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="145">
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="146">
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="147">
@@ -4190,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="148">
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="149">
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="150">
@@ -4268,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="151">
@@ -4294,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="152">
@@ -4320,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="153">
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="154">
@@ -4372,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="155">
@@ -4398,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="156">
@@ -4424,7 +4424,7 @@
         <v>2</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="157">
@@ -4450,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="158">
@@ -4476,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="159">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="160">
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="161">
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="162">
@@ -4580,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="163">
@@ -4606,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="164">
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="165">
@@ -4658,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="166">
@@ -4684,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="167">
@@ -4710,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="168">
@@ -4736,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="169">
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="170">
@@ -4788,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="171">
@@ -4814,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="172">
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="173">
@@ -4866,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="174">
@@ -4892,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="175">
@@ -4914,7 +4914,7 @@
         <v>2</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="176">
@@ -4940,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="177">
@@ -4966,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="178">
@@ -4992,7 +4992,7 @@
         <v>2</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
     <row r="179">
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>45905.40626749436</v>
+        <v>45905.4062675</v>
       </c>
     </row>
   </sheetData>
